--- a/data/excel files/out/dutyForecast.xlsx
+++ b/data/excel files/out/dutyForecast.xlsx
@@ -7,25 +7,45 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="011123" sheetId="1" r:id="rId1"/>
-    <sheet name="311023" sheetId="2" state="hidden" r:id="rId2"/>
-    <sheet name="021123" sheetId="3" r:id="rId3"/>
-    <sheet name="031123" sheetId="4" r:id="rId4"/>
-    <sheet name="041123" sheetId="5" r:id="rId5"/>
-    <sheet name="051123" sheetId="6" r:id="rId6"/>
-    <sheet name="061123" sheetId="7" r:id="rId7"/>
-    <sheet name="071123" sheetId="8" r:id="rId8"/>
-    <sheet name="081123" sheetId="9" r:id="rId9"/>
-    <sheet name="091123" sheetId="10" r:id="rId10"/>
-    <sheet name="101123" sheetId="11" r:id="rId11"/>
-    <sheet name="111123" sheetId="12" state="hidden" r:id="rId12"/>
+    <sheet name="011223" sheetId="1" r:id="rId1"/>
+    <sheet name="301123" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="021223" sheetId="3" r:id="rId3"/>
+    <sheet name="031223" sheetId="4" r:id="rId4"/>
+    <sheet name="041223" sheetId="5" r:id="rId5"/>
+    <sheet name="051223" sheetId="6" r:id="rId6"/>
+    <sheet name="061223" sheetId="7" r:id="rId7"/>
+    <sheet name="071223" sheetId="8" r:id="rId8"/>
+    <sheet name="081223" sheetId="9" r:id="rId9"/>
+    <sheet name="091223" sheetId="10" r:id="rId10"/>
+    <sheet name="101223" sheetId="11" r:id="rId11"/>
+    <sheet name="111223" sheetId="12" r:id="rId12"/>
+    <sheet name="121223" sheetId="13" r:id="rId13"/>
+    <sheet name="131223" sheetId="14" r:id="rId14"/>
+    <sheet name="141223" sheetId="15" r:id="rId15"/>
+    <sheet name="151223" sheetId="16" r:id="rId16"/>
+    <sheet name="161223" sheetId="17" r:id="rId17"/>
+    <sheet name="171223" sheetId="18" r:id="rId18"/>
+    <sheet name="181223" sheetId="19" r:id="rId19"/>
+    <sheet name="191223" sheetId="20" r:id="rId20"/>
+    <sheet name="201223" sheetId="21" r:id="rId21"/>
+    <sheet name="211223" sheetId="22" r:id="rId22"/>
+    <sheet name="221223" sheetId="23" r:id="rId23"/>
+    <sheet name="231223" sheetId="24" r:id="rId24"/>
+    <sheet name="241223" sheetId="25" r:id="rId25"/>
+    <sheet name="251223" sheetId="26" r:id="rId26"/>
+    <sheet name="261223" sheetId="27" r:id="rId27"/>
+    <sheet name="271223" sheetId="28" r:id="rId28"/>
+    <sheet name="281223" sheetId="29" r:id="rId29"/>
+    <sheet name="291223" sheetId="30" r:id="rId30"/>
+    <sheet name="301223" sheetId="31" r:id="rId31"/>
+    <sheet name="311223" sheetId="32" state="hidden" r:id="rId32"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="107">
   <si>
     <t>OSC</t>
   </si>
@@ -48,274 +68,292 @@
     <t>SITE VCOMM</t>
   </si>
   <si>
+    <t>LTA JOVAN</t>
+  </si>
+  <si>
+    <t>3WO LEONARD</t>
+  </si>
+  <si>
+    <t>2SG SEAN YAP</t>
+  </si>
+  <si>
+    <t>SSG JIAN HONG</t>
+  </si>
+  <si>
+    <t>3SG AUGUSTIN</t>
+  </si>
+  <si>
+    <t>1SG NICHOLAS</t>
+  </si>
+  <si>
+    <t>3SG RYAN</t>
+  </si>
+  <si>
+    <t>A-S COORD (G1)</t>
+  </si>
+  <si>
+    <t>A-S CONT (G2)</t>
+  </si>
+  <si>
+    <t>ASTER WC (G3A)</t>
+  </si>
+  <si>
+    <t>NIL</t>
+  </si>
+  <si>
+    <t>OFFICER</t>
+  </si>
+  <si>
+    <t>JUNIOR/SENIOR ADWSS</t>
+  </si>
+  <si>
+    <t>ADWS</t>
+  </si>
+  <si>
+    <t>COMMSEC</t>
+  </si>
+  <si>
+    <t>SB TO (EQUIPMENT)</t>
+  </si>
+  <si>
+    <t>SB TO (ESCORT)</t>
+  </si>
+  <si>
+    <t>2LT MAX</t>
+  </si>
+  <si>
+    <t>MSG MANFRED</t>
+  </si>
+  <si>
+    <t>3SG MALCOLM PECK</t>
+  </si>
+  <si>
+    <t>3WO ZHENG YUAN</t>
+  </si>
+  <si>
+    <t>MSG IVAN CHEN</t>
+  </si>
+  <si>
+    <t>3SG MORPHEUS</t>
+  </si>
+  <si>
+    <t>SSG QI XIAN</t>
+  </si>
+  <si>
+    <t>3SG BRENDAN</t>
+  </si>
+  <si>
+    <t>3SG NISHAN</t>
+  </si>
+  <si>
+    <t>3SG NIGEL</t>
+  </si>
+  <si>
     <t>LTA BRENDON</t>
   </si>
   <si>
+    <t>MSG KIT YIN</t>
+  </si>
+  <si>
+    <t>3SG XI QUAN</t>
+  </si>
+  <si>
+    <t>3WO MATHEW</t>
+  </si>
+  <si>
+    <t>CPT ROY</t>
+  </si>
+  <si>
+    <t>3WO YI HAO</t>
+  </si>
+  <si>
+    <t>3WO WENG YEW</t>
+  </si>
+  <si>
+    <t>3SG JOSHUR</t>
+  </si>
+  <si>
+    <t>MSG BRYAN YON</t>
+  </si>
+  <si>
+    <t>2LT CALEB</t>
+  </si>
+  <si>
+    <t>3SG ERNEST</t>
+  </si>
+  <si>
+    <t>2WO SARA</t>
+  </si>
+  <si>
+    <t>3SG CALEB</t>
+  </si>
+  <si>
+    <t>SSG SUREN</t>
+  </si>
+  <si>
+    <t>3SG SHIN RON</t>
+  </si>
+  <si>
+    <t>2SG SEAN TZE</t>
+  </si>
+  <si>
+    <t>3SG HERTZ</t>
+  </si>
+  <si>
+    <t>3WO YAO REN</t>
+  </si>
+  <si>
+    <t>LTA DANIEL</t>
+  </si>
+  <si>
+    <t>2SG HOWARD</t>
+  </si>
+  <si>
+    <t>1SG MALCOLM CHOW</t>
+  </si>
+  <si>
+    <t>3WO CHEOK</t>
+  </si>
+  <si>
+    <t>1SG HE QUN</t>
+  </si>
+  <si>
+    <t>3WO LUIS HUANG</t>
+  </si>
+  <si>
+    <t>3WO HUA ZONG</t>
+  </si>
+  <si>
+    <t>1SG BRYAN LEE</t>
+  </si>
+  <si>
+    <t>HAMMER</t>
+  </si>
+  <si>
+    <t>MAFIA</t>
+  </si>
+  <si>
+    <t>CLOUDY</t>
+  </si>
+  <si>
     <t>3WO PRAVEAN</t>
   </si>
   <si>
-    <t>2SG SEAN YAP</t>
-  </si>
-  <si>
-    <t>MSG BRYAN YON</t>
-  </si>
-  <si>
-    <t>3SG BRENDAN</t>
-  </si>
-  <si>
-    <t>1SG MALCOLM CHOW</t>
-  </si>
-  <si>
-    <t>3SG NIGEL</t>
-  </si>
-  <si>
-    <t>A-S COORD (G1)</t>
-  </si>
-  <si>
-    <t>A-S CONT (G2)</t>
-  </si>
-  <si>
-    <t>ASTER WC (G3A)</t>
-  </si>
-  <si>
-    <t>CHISEL</t>
-  </si>
-  <si>
-    <t>TWOFACE</t>
+    <t>3SG ZACHARY</t>
+  </si>
+  <si>
+    <t>3WO LO HENG</t>
+  </si>
+  <si>
+    <t>CALCLUM</t>
+  </si>
+  <si>
+    <t>COMIC</t>
+  </si>
+  <si>
+    <t>GUNDAM</t>
+  </si>
+  <si>
+    <t>MSG YEW SENG</t>
+  </si>
+  <si>
+    <t>HALO</t>
+  </si>
+  <si>
+    <t>SPRITE</t>
   </si>
   <si>
     <t>IMACS</t>
   </si>
   <si>
-    <t>OFFICER</t>
-  </si>
-  <si>
-    <t>JUNIOR/SENIOR ADWSS</t>
-  </si>
-  <si>
-    <t>ADWS</t>
-  </si>
-  <si>
-    <t>COMMSEC</t>
-  </si>
-  <si>
-    <t>SB TO (EQUIPMENT)</t>
-  </si>
-  <si>
-    <t>SB TO (ESCORT)</t>
-  </si>
-  <si>
-    <t>CPT ROY</t>
-  </si>
-  <si>
-    <t>1SG HE QUN</t>
+    <t>CHIMNEY</t>
+  </si>
+  <si>
+    <t>FLARE</t>
+  </si>
+  <si>
+    <t>2SG SHAO JUN</t>
+  </si>
+  <si>
+    <t>ASLAN</t>
+  </si>
+  <si>
+    <t>RUBIK</t>
+  </si>
+  <si>
+    <t>CPT WEI JIAN</t>
+  </si>
+  <si>
+    <t>DOUBLE</t>
+  </si>
+  <si>
+    <t>DIVE</t>
+  </si>
+  <si>
+    <t>PSYCHO</t>
+  </si>
+  <si>
+    <t>CLERIC</t>
+  </si>
+  <si>
+    <t>2LT THEOPHILUS</t>
+  </si>
+  <si>
+    <t>BEAST</t>
+  </si>
+  <si>
+    <t>TWO-FACE</t>
+  </si>
+  <si>
+    <t>2SG EVAN</t>
+  </si>
+  <si>
+    <t>CPT WEI KEONG</t>
+  </si>
+  <si>
+    <t>CALCIUM</t>
+  </si>
+  <si>
+    <t>ZINC</t>
+  </si>
+  <si>
+    <t>HAMMER/LIGHTYEAR</t>
+  </si>
+  <si>
+    <t>CADENCE/DOUBLE</t>
+  </si>
+  <si>
+    <t>ZINC/COMIC</t>
+  </si>
+  <si>
+    <t>SNAP</t>
   </si>
   <si>
     <t>2SG KEITH</t>
   </si>
   <si>
-    <t>CPT WEI KEONG</t>
-  </si>
-  <si>
-    <t>LIGHTYEAR</t>
-  </si>
-  <si>
-    <t>MAFIA</t>
-  </si>
-  <si>
-    <t>CLOUDY</t>
-  </si>
-  <si>
-    <t>2LT THEOPHILUS</t>
-  </si>
-  <si>
-    <t>3WO HUA ZONG</t>
-  </si>
-  <si>
-    <t>3SG XI QUAN</t>
-  </si>
-  <si>
-    <t>SSG JIAN HONG</t>
-  </si>
-  <si>
-    <t>3SG ZACHARY</t>
-  </si>
-  <si>
-    <t>1SG BRYAN LEE</t>
-  </si>
-  <si>
-    <t>3SG CALEB</t>
-  </si>
-  <si>
-    <t>CALCIUM/PSYCHO</t>
-  </si>
-  <si>
-    <t>FLARE</t>
-  </si>
-  <si>
-    <t>2LT DANIEL</t>
-  </si>
-  <si>
-    <t>3WO LEONARD</t>
-  </si>
-  <si>
-    <t>3SG AUGUSTIN</t>
-  </si>
-  <si>
-    <t>3WO MATHEW</t>
-  </si>
-  <si>
-    <t>HAMMER</t>
-  </si>
-  <si>
-    <t>SNAP</t>
-  </si>
-  <si>
-    <t>IGNITE</t>
-  </si>
-  <si>
-    <t>LTA JOVAN</t>
-  </si>
-  <si>
-    <t>3WO YI HAO</t>
+    <t>ASIAN</t>
+  </si>
+  <si>
+    <t>CPT MARC</t>
   </si>
   <si>
     <t>3SG ISAAC</t>
   </si>
   <si>
-    <t>3SG MALCOLM PECK</t>
-  </si>
-  <si>
-    <t>3SG NISHAN</t>
-  </si>
-  <si>
-    <t>3SG HERTZ</t>
-  </si>
-  <si>
-    <t>SPRITE</t>
-  </si>
-  <si>
-    <t>SSG SUREN</t>
-  </si>
-  <si>
-    <t>CHIMNEY</t>
-  </si>
-  <si>
-    <t>CLERIC</t>
-  </si>
-  <si>
-    <t>CPT NAVEEN</t>
-  </si>
-  <si>
-    <t>2SG EVAN</t>
-  </si>
-  <si>
-    <t>3WO WENG YEW</t>
-  </si>
-  <si>
-    <t>1SG NICHOLAS</t>
-  </si>
-  <si>
-    <t>2SG SHAO JUN</t>
-  </si>
-  <si>
-    <t>COMIC</t>
-  </si>
-  <si>
-    <t>BEAST</t>
-  </si>
-  <si>
-    <t>2LT CALEB</t>
-  </si>
-  <si>
-    <t>3SG ERNEST</t>
-  </si>
-  <si>
-    <t>MSG MANFRED</t>
-  </si>
-  <si>
-    <t>SEEKER</t>
-  </si>
-  <si>
-    <t>DO-IT</t>
-  </si>
-  <si>
-    <t>SSG QI XIAN</t>
-  </si>
-  <si>
-    <t>3SG JOSHUR</t>
-  </si>
-  <si>
-    <t>CPT JIA YING</t>
-  </si>
-  <si>
-    <t>CALCIUM</t>
-  </si>
-  <si>
-    <t>PSYCHO</t>
-  </si>
-  <si>
-    <t>3WO ZHENG YUAN</t>
-  </si>
-  <si>
-    <t>2SG HOWARD</t>
-  </si>
-  <si>
-    <t>GUNDAM</t>
-  </si>
-  <si>
-    <t>2LT MAX</t>
-  </si>
-  <si>
-    <t>3WO CHEOK</t>
-  </si>
-  <si>
-    <t>3SG SHIN RON</t>
-  </si>
-  <si>
-    <t>3SG RYAN</t>
-  </si>
-  <si>
-    <t>3WO LUIS HUANG</t>
-  </si>
-  <si>
-    <t>CADENCE</t>
-  </si>
-  <si>
-    <t>3WO YAO REN</t>
-  </si>
-  <si>
-    <t>GENGAR</t>
-  </si>
-  <si>
-    <t>2WO DEVARAJ</t>
-  </si>
-  <si>
-    <t>DIVA</t>
-  </si>
-  <si>
-    <t>2SG SEAN TZE</t>
-  </si>
-  <si>
-    <t>MSG IVAN CHEN</t>
-  </si>
-  <si>
-    <t>ASLAN</t>
-  </si>
-  <si>
-    <t>CPT WEI JIAN</t>
-  </si>
-  <si>
-    <t>LIGHTYEAR/CHISEL</t>
-  </si>
-  <si>
-    <t>1SG VINCZE</t>
-  </si>
-  <si>
-    <t>RUBIK</t>
+    <t>CPT CHU HENG</t>
   </si>
   <si>
     <t>UNKNOWN</t>
+  </si>
+  <si>
+    <t>SSG FREDERICK</t>
+  </si>
+  <si>
+    <t>1WO MICHAEL EU</t>
+  </si>
+  <si>
+    <t>2WO DANIEL</t>
   </si>
   <si>
     <t>APPT</t>
@@ -675,33 +713,33 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="G2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -715,13 +753,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -735,13 +773,13 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -755,13 +793,13 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -775,13 +813,13 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -789,13 +827,13 @@
         <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -809,13 +847,13 @@
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
         <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -826,7 +864,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -840,10 +878,10 @@
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -859,7 +897,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -867,7 +905,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -884,33 +922,33 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="G2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -918,19 +956,19 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -938,19 +976,19 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -958,19 +996,19 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -978,33 +1016,33 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="B7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1012,19 +1050,19 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
         <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1035,7 +1073,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1043,16 +1081,16 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1060,7 +1098,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1068,7 +1106,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1076,7 +1114,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1093,33 +1131,33 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="G2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1127,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1147,19 +1185,19 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1167,19 +1205,19 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1187,33 +1225,33 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="B7" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1221,19 +1259,19 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
         <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1244,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1252,16 +1290,16 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1269,7 +1307,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1277,7 +1315,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1285,7 +1323,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1302,32 +1340,1287 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="G2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1335,13 +2628,19 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1349,13 +2648,19 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1363,13 +2668,19 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>96</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1377,24 +2688,33 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="B7" t="s">
-        <v>52</v>
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>64</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1402,21 +2722,30 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
       </c>
       <c r="G8" t="s">
         <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>5</v>
       </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1424,10 +2753,16 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>75</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>94</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1435,7 +2770,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1443,7 +2778,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1451,7 +2786,216 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1470,22 +3014,22 @@
     <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1544,6 +3088,2096 @@
       </c>
       <c r="E10" t="s">
         <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1560,33 +5194,242 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="G2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1594,19 +5437,19 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1614,19 +5457,19 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1634,19 +5477,19 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1654,33 +5497,33 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="B7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1688,19 +5531,19 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s">
         <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1711,7 +5554,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1719,16 +5562,16 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1736,7 +5579,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1744,7 +5587,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1752,7 +5595,382 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1769,33 +5987,33 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="G2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1803,19 +6021,19 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1823,7 +6041,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -1832,10 +6050,10 @@
         <v>45</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1843,19 +6061,19 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1863,33 +6081,33 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="B7" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1897,19 +6115,19 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
         <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1920,7 +6138,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1928,16 +6146,16 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1945,7 +6163,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1953,7 +6171,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1961,7 +6179,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1978,33 +6196,33 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="G2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2012,19 +6230,19 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2038,13 +6256,13 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2052,19 +6270,19 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2072,33 +6290,33 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="B7" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2106,19 +6324,19 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
         <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2129,7 +6347,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2137,16 +6355,16 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2162,7 +6380,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2170,7 +6388,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2187,33 +6405,33 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="G2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2221,19 +6439,19 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2241,19 +6459,19 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2261,19 +6479,19 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2281,33 +6499,33 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="B7" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2315,19 +6533,19 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="G8" t="s">
         <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2338,7 +6556,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2346,16 +6564,16 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2363,7 +6581,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2371,7 +6589,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2379,7 +6597,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2396,33 +6614,33 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="G2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2430,19 +6648,19 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2450,19 +6668,19 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2470,19 +6688,19 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2490,13 +6708,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
@@ -2507,16 +6725,16 @@
     </row>
     <row r="7" spans="1:8">
       <c r="B7" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2524,19 +6742,19 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="G8" t="s">
         <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2547,7 +6765,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2555,16 +6773,16 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2572,7 +6790,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2580,7 +6798,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2588,7 +6806,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2605,33 +6823,33 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="G2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2639,19 +6857,19 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>68</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2659,19 +6877,19 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2679,19 +6897,19 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2699,33 +6917,33 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="B7" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2733,19 +6951,19 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
         <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2756,7 +6974,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2764,16 +6982,16 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2789,7 +7007,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2797,7 +7015,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2814,33 +7032,33 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="G2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2848,19 +7066,19 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2868,19 +7086,19 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2888,19 +7106,19 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2908,33 +7126,33 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="B7" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2942,19 +7160,19 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s">
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
         <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2965,7 +7183,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2973,16 +7191,16 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2990,7 +7208,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2998,7 +7216,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3006,7 +7224,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
